--- a/biology/Mycologie/Georg_Franz_Hoffmann/Georg_Franz_Hoffmann.xlsx
+++ b/biology/Mycologie/Georg_Franz_Hoffmann/Georg_Franz_Hoffmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Franz Hoffmann est un botaniste et mycologue allemand, né le 13 janvier 1760 à Marktbreit (comté princier de Schwarzenberg (nl)) et mort le 17 mars 1826 à Moscou.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'université d'Erlangen, il travaille de 1787-1792 comme professeur dans cette même université. Il fait paraître, de 1787 à 1790, Vegetabilia cryptogama (Erlangen). L’Académie de Lyon le récompense en 1787 pour ses travaux sur les lichens. Suivent plusieurs ouvrages sur les cryptogames : Historia salicum, iconibus illustrat (1788-1791, Leipzig) ; Nomenclator fungorum (1789-1790, deux volumes, Berlin) et Descriptio et adumbratio plantarum e classe cryptogamica Linnaei quae lichenes dicuntur... (1790-1801, trois volumes, Leipzig)
 Il dirige de 1792 à 1803, le département de botanique ainsi que le jardin botanique de l'université de Göttingen. Botaniste déjà renommé notamment pour ses travaux sur les lichens, il s’installe à Moscou en janvier 1804 et y dirige le département de botanique de l’université de la ville ainsi que le Jardin botanique. Il fait partie des cofondateurs de la Société impériale des naturalistes de Moscou. Il commence à publier une flore d’Allemagne mais le manuscrit du troisième volume disparaît lors de l'incendie de Moscou en 1812. En 1814, il fait paraître une monographie Plantarum umbelliferarum genera eorumque characteres naturales..., rééditée en 1816, où il décrit les espèces cultivées dans le Jardin botanique de l'université. Il y décrit 3 528 espèces de montagne et y ajoute d’autres publications. Ses leçons étaient renommées, Goethe et Alexander von Humboldt sont venus y assister. En 1817, il enseigne également à l’Académie des sciences de Moscou.
